--- a/Test Data/Ajman SuperApp - Test Data.xlsx
+++ b/Test Data/Ajman SuperApp - Test Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>biller</t>
   </si>
@@ -102,9 +102,6 @@
     <t>EmailAddress</t>
   </si>
   <si>
-    <t>abdullah@testing.com</t>
-  </si>
-  <si>
     <t>Email Address Updated Successfully</t>
   </si>
   <si>
@@ -240,10 +237,133 @@
     <t>Bank Code 30007, Guichet 99999</t>
   </si>
   <si>
-    <t>Dashboard Vrified Successfully Successfully</t>
-  </si>
-  <si>
     <t>User Successfully Registered</t>
+  </si>
+  <si>
+    <t>test1Hastra@testing.com</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+(13.66 USD)
+Paid To
+FEWA
+FEWA
+210000137777
+Reference ID
+22101793759812</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+Paid To
+DU
+du Postpaid
+599588538
+Reference ID
+22101580737665</t>
+  </si>
+  <si>
+    <t>200.51
+AED
+Paid To
+ADDC
+ADDC
+8235355929
+Reference ID
+2210470571588</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Transfer to
+Short.name 1074784
+011074784027
+Ajman Bank
+Description
+Reference ID
+FT23081QFVH5</t>
+  </si>
+  <si>
+    <t>100.00
+USD
+(368.60 AED)
+Transfer to
+Current Account
+011000366022
+Reference ID
+FT23081LDRR9</t>
+  </si>
+  <si>
+    <t>101.05
+AED
+Transfer to
+test
+AE400211000000220294021
+Citibank NA
+Description
+Reference ID
+FT23081K8FGC</t>
+  </si>
+  <si>
+    <t>2,200.00
+INR
+(134.24 AED)
+Submitted
+You will be notified once your payment is successful
+Test
+India
+372073000000786
+HDFC BANK LIMITED
+Description
+Reference ID
+FT23081SFVGD</t>
+  </si>
+  <si>
+    <t>30.00
+USD
+(142.08 AED)
+Submitted
+You will be notified once your payment is successful
+Terence
+United States Of America
+903013089
+CHASE INVESTMENT COUNSEL CORPORATION
+Description
+Reference ID
+FT23081T683T</t>
+  </si>
+  <si>
+    <t>25.00
+GBP
+(106.57 AED)
+Transfer Failed
+ICF
+United Kingdom
+GB57COUT1800020533051
+COUTTS AND COMPANY
+Description
+Reference ID</t>
+  </si>
+  <si>
+    <t>30.00
+USD
+(142.08 AED)
+Submitted
+You will be notified once your payment is successful
+AKS Natixis Bk
+France
+FR7630007999992738468400131
+NATIXIS FACTOR
+Description
+Reference ID
+FT23081FSDKX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard Details Verified Successfully </t>
+  </si>
+  <si>
+    <t>Dashboard Details Verified Successfully</t>
   </si>
 </sst>
 </file>
@@ -253,7 +373,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +396,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -301,10 +428,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -337,8 +468,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -639,13 +774,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="23.7109375" style="6" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1">
@@ -673,10 +808,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D2">
         <v>1234</v>
@@ -685,7 +820,10 @@
         <v>102030</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +837,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -707,8 +845,8 @@
     <col min="3" max="3" width="21.140625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1"/>
-    <col min="7" max="7" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1">
@@ -739,10 +877,13 @@
         <v>102030</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +897,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -825,12 +966,14 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="5">
         <v>50</v>
       </c>
-      <c r="J2"/>
+      <c r="J2" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="6">
@@ -852,12 +995,14 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="5">
         <v>50</v>
       </c>
-      <c r="J3"/>
+      <c r="J3" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="6">
@@ -873,9 +1018,11 @@
         <v>8235355929</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4"/>
+        <v>30</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -896,7 +1043,7 @@
     <col min="1" max="1" width="11.85546875" style="14" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.140625" style="14" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="17" customFormat="1">
@@ -921,6 +1068,9 @@
         <v>503644497</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -935,7 +1085,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -943,7 +1093,7 @@
     <col min="1" max="1" width="12.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="30" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="17" customFormat="1">
@@ -964,11 +1114,14 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
+      <c r="D2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -983,18 +1136,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
-    <col min="6" max="6" width="43" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
@@ -1002,13 +1155,13 @@
         <v>24</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>12</v>
@@ -1022,15 +1175,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5">
         <v>100</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1047,12 +1202,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="38.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
@@ -1060,13 +1215,13 @@
         <v>24</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>12</v>
@@ -1080,13 +1235,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5">
         <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1104,12 +1262,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
@@ -1117,13 +1275,13 @@
         <v>24</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>12</v>
@@ -1137,15 +1295,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5">
         <v>100</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1156,26 +1316,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
-    <col min="7" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="31.140625" customWidth="1"/>
-    <col min="15" max="15" width="39.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="24" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="47.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75">
@@ -1183,40 +1343,40 @@
         <v>24</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>47</v>
-      </c>
       <c r="M1" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>12</v>
@@ -1230,34 +1390,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
       </c>
       <c r="F2" s="6">
         <v>372073000000786</v>
       </c>
       <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
         <v>50</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>52</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>53</v>
-      </c>
-      <c r="L2" t="s">
-        <v>54</v>
       </c>
       <c r="M2" s="16">
         <v>2200</v>
+      </c>
+      <c r="O2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1265,34 +1428,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
         <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
       </c>
       <c r="F3">
         <v>903013089</v>
       </c>
       <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M3" s="5">
         <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1300,31 +1466,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4" s="5">
         <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1332,31 +1501,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>68</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5" s="5">
         <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Ajman SuperApp - Test Data.xlsx
+++ b/Test Data/Ajman SuperApp - Test Data.xlsx
@@ -4,25 +4,29 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" firstSheet="4" activeTab="8"/>
+    <workbookView activeTab="10" firstSheet="8" windowHeight="7950" windowWidth="20055" xWindow="240" yWindow="60"/>
   </bookViews>
   <sheets>
-    <sheet name="Registration" sheetId="2" r:id="rId1"/>
-    <sheet name="Login" sheetId="3" r:id="rId2"/>
-    <sheet name="NewBillPayment" sheetId="1" r:id="rId3"/>
-    <sheet name="ProfileSettings_MobileNumber" sheetId="4" r:id="rId4"/>
-    <sheet name="ProfileSettings_EmailAddress" sheetId="5" r:id="rId5"/>
-    <sheet name="MyOwn" sheetId="6" r:id="rId6"/>
-    <sheet name="TransferWithInAjman" sheetId="7" r:id="rId7"/>
-    <sheet name="TransferWithInUAE" sheetId="8" r:id="rId8"/>
-    <sheet name="TransferToInternational" sheetId="9" r:id="rId9"/>
+    <sheet name="Registration" r:id="rId1" sheetId="2"/>
+    <sheet name="Login" r:id="rId2" sheetId="3"/>
+    <sheet name="NewBillPayment" r:id="rId3" sheetId="1"/>
+    <sheet name="NewBillPaymentwithCards" r:id="rId4" sheetId="11"/>
+    <sheet name="SaveTheBillers" r:id="rId5" sheetId="14"/>
+    <sheet name="MyOwn" r:id="rId6" sheetId="6"/>
+    <sheet name="TransferWithInAjman" r:id="rId7" sheetId="7"/>
+    <sheet name="TransferWithInUAE" r:id="rId8" sheetId="8"/>
+    <sheet name="TransferToInternational" r:id="rId9" sheetId="9"/>
+    <sheet name="ProfileSettings_MobileNumber" r:id="rId10" sheetId="4"/>
+    <sheet name="ProfileSettings_EmailAddress" r:id="rId11" sheetId="5"/>
+    <sheet name="CardPayment" r:id="rId12" sheetId="10"/>
+    <sheet name="MultipleBillPayment" r:id="rId13" sheetId="12"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="112">
   <si>
     <t>biller</t>
   </si>
@@ -105,18 +109,6 @@
     <t>Email Address Updated Successfully</t>
   </si>
   <si>
-    <t>011000366022</t>
-  </si>
-  <si>
-    <t>Credit Card</t>
-  </si>
-  <si>
-    <t>5290161250133434</t>
-  </si>
-  <si>
-    <t>011000366010</t>
-  </si>
-  <si>
     <t>TransferToAccount</t>
   </si>
   <si>
@@ -240,38 +232,67 @@
     <t>User Successfully Registered</t>
   </si>
   <si>
-    <t>test1Hastra@testing.com</t>
-  </si>
-  <si>
-    <t>50.00
-AED
-(13.66 USD)
-Paid To
-FEWA
-FEWA
-210000137777
-Reference ID
-22101793759812</t>
-  </si>
-  <si>
-    <t>50.00
-AED
-Paid To
-DU
-du Postpaid
-599588538
-Reference ID
-22101580737665</t>
-  </si>
-  <si>
-    <t>200.51
-AED
-Paid To
-ADDC
-ADDC
-8235355929
-Reference ID
-2210470571588</t>
+    <t xml:space="preserve">Dashboard Details Verified Successfully </t>
+  </si>
+  <si>
+    <t>CreditCardNumber</t>
+  </si>
+  <si>
+    <t>5309182253321312</t>
+  </si>
+  <si>
+    <t>cardLastFourDigits</t>
+  </si>
+  <si>
+    <t>Multiple Bill Payment Successful</t>
+  </si>
+  <si>
+    <t>Biller</t>
+  </si>
+  <si>
+    <t>SubBiller</t>
+  </si>
+  <si>
+    <t>ConsumerNumber</t>
+  </si>
+  <si>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>4285720304320212</t>
+  </si>
+  <si>
+    <t>011103138011</t>
+  </si>
+  <si>
+    <t>011103138023</t>
+  </si>
+  <si>
+    <t>0212</t>
+  </si>
+  <si>
+    <t>NewCardPayment</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>CardLastFourDigits</t>
+  </si>
+  <si>
+    <t>Debit Card</t>
+  </si>
+  <si>
+    <t>Dashboard Details Verified Successfully</t>
+  </si>
+  <si>
+    <t>Biller FEWA Saved Successfully with consumer number 210000137777</t>
+  </si>
+  <si>
+    <t>Biller Du Saved Successfully with consumer number 599588538</t>
   </si>
   <si>
     <t>100.00
@@ -282,20 +303,10 @@
 Ajman Bank
 Description
 Reference ID
-FT23081QFVH5</t>
+FT23089TYGYJ</t>
   </si>
   <si>
     <t>100.00
-USD
-(368.60 AED)
-Transfer to
-Current Account
-011000366022
-Reference ID
-FT23081LDRR9</t>
-  </si>
-  <si>
-    <t>101.05
 AED
 Transfer to
 test
@@ -303,7 +314,7 @@
 Citibank NA
 Description
 Reference ID
-FT23081K8FGC</t>
+FT23089M4RZ4</t>
   </si>
   <si>
     <t>2,200.00
@@ -317,7 +328,7 @@
 HDFC BANK LIMITED
 Description
 Reference ID
-FT23081SFVGD</t>
+FT23089DJWFL</t>
   </si>
   <si>
     <t>30.00
@@ -331,7 +342,7 @@
 CHASE INVESTMENT COUNSEL CORPORATION
 Description
 Reference ID
-FT23081T683T</t>
+FT23089GKW8X</t>
   </si>
   <si>
     <t>25.00
@@ -357,13 +368,160 @@
 NATIXIS FACTOR
 Description
 Reference ID
-FT23081FSDKX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dashboard Details Verified Successfully </t>
-  </si>
-  <si>
-    <t>Dashboard Details Verified Successfully</t>
+FT23089S245W</t>
+  </si>
+  <si>
+    <t>Email Address Not Updated. Please Try Again</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Paid To
+NASER AL HAT011
+5309 1822 5332 1312
+Reference ID
+FT23089NXZFW</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Paid To
+Roadmiles - Platinum
+4285720304320212
+Reference ID
+FT230892VSD2</t>
+  </si>
+  <si>
+    <t>Biller ADDC Saved Successfully with consumer number 8235355929</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+Paid To
+FEWA
+FEWA
+210000137777
+Reference ID
+2210561854599</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+(13.66 USD)
+Paid To
+DU
+du Postpaid
+599588538
+Reference ID
+2210271021421</t>
+  </si>
+  <si>
+    <t>200.51
+AED
+Paid To
+ADDC
+ADDC
+8235355929
+Reference ID
+22101518932802</t>
+  </si>
+  <si>
+    <t>Multiple Bill Payment Successful with Amount - 3682.78</t>
+  </si>
+  <si>
+    <t>100.00
+USD
+(368.60 AED)
+Transfer to
+Savings Account
+011103138023
+Reference ID
+FT23090M2YCS</t>
+  </si>
+  <si>
+    <t>test2Hastra2@testing.com</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Transfer to
+Short.name 1074784
+011074784027
+Ajman Bank
+Description
+Reference ID
+FT23090M9TNG</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Transfer to
+test
+AE400211000000220294021
+Citibank NA
+Description
+Reference ID
+FT23090W3VGS</t>
+  </si>
+  <si>
+    <t>2,200.00
+INR
+(134.24 AED)
+Submitted
+You will be notified once your payment is successful
+Test
+India
+372073000000786
+HDFC BANK LIMITED
+Description
+Reference ID
+FT23090L8MS5</t>
+  </si>
+  <si>
+    <t>30.00
+USD
+(142.08 AED)
+Submitted
+You will be notified once your payment is successful
+Terence
+United States Of America
+903013089
+CHASE INVESTMENT COUNSEL CORPORATION
+Description
+Reference ID
+FT23090RG79F</t>
+  </si>
+  <si>
+    <t>30.00
+USD
+(142.08 AED)
+Submitted
+You will be notified once your payment is successful
+AKS Natixis Bk
+France
+FR7630007999992738468400131
+NATIXIS FACTOR
+Description
+Reference ID
+FT230900M67F</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Paid To
+Roadmiles - Platinum
+4285720304320212
+Reference ID
+FT23090SC4M3</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Paid To
+Roadmiles - Platinum
+4285720304320212
+Reference ID
+FT23090K9CQ2</t>
   </si>
 </sst>
 </file>
@@ -429,55 +587,55 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="1" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="4" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="2" numFmtId="1" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -486,10 +644,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -645,7 +803,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -654,13 +812,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -670,7 +828,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -679,7 +837,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -688,7 +846,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -698,12 +856,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -734,7 +892,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -753,7 +911,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -766,24 +924,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.7109375" style="6" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="6" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1">
+    <row customFormat="1" r="1" s="17" spans="1:7">
       <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
@@ -807,49 +965,294 @@
       </c>
     </row>
     <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D2">
-        <v>1234</v>
+        <v>6263</v>
       </c>
       <c r="E2">
         <v>102030</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="14" width="11.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="14" width="18.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="34.62109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="17" spans="1:4">
+      <c r="A1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>503644497</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="41.3203125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="17" spans="1:4">
+      <c r="A1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.99609375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="15.75" r="1" spans="1:8">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="5">
+        <v>100</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="5">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="51.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="15.75" r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="36.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1">
+    <row customFormat="1" r="1" s="17" spans="1:7">
       <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
@@ -873,21 +1276,24 @@
       </c>
     </row>
     <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
         <v>102030</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -897,24 +1303,24 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" style="6" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="18.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="35.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="1" s="9" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -966,13 +1372,13 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="I2" s="5">
         <v>50</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>73</v>
+      <c r="J2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -995,13 +1401,13 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="I3" s="5">
         <v>50</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>74</v>
+      <c r="J3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1018,71 +1424,463 @@
         <v>8235355929</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="J4" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="14" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1">
-      <c r="A1" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="17" t="s">
+    <row ht="15.75" r="1" spans="1:10">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="J1" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="14">
+    <row r="2" spans="1:10">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
-        <v>503644497</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>210000137777</v>
+      </c>
+      <c r="E2" s="4">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="5">
+        <v>50</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>599588538</v>
+      </c>
+      <c r="E3" s="4">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="5">
+        <v>50</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8235355929</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="63.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="15.75" r="1" spans="1:10">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>210000137777</v>
+      </c>
+      <c r="E2" s="4">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>599588538</v>
+      </c>
+      <c r="E3" s="4">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8235355929</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="15.75" r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.78515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="15.75" r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="15.75" r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1090,293 +1888,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="47.484375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1">
-      <c r="A1" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row ht="15.75" r="1" spans="1:15">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="5">
-        <v>100</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="5">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="5">
-        <v>100</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="24" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="47.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15.75">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="I1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="J1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>46</v>
-      </c>
       <c r="M1" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>12</v>
@@ -1390,37 +1956,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F2" s="6">
         <v>372073000000786</v>
       </c>
       <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
         <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" t="s">
-        <v>53</v>
       </c>
       <c r="M2" s="16">
         <v>2200</v>
       </c>
       <c r="O2" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1428,37 +1994,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>903013089</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M3" s="5">
         <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1466,34 +2032,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" t="s">
+      <c r="K4" t="s">
         <v>61</v>
       </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M4" s="5">
         <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1501,37 +2067,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
         <v>66</v>
       </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M5" s="5">
         <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Test Data/Ajman SuperApp - Test Data.xlsx
+++ b/Test Data/Ajman SuperApp - Test Data.xlsx
@@ -4,29 +4,30 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="8" windowHeight="7950" windowWidth="20055" xWindow="240" yWindow="60"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="Registration" r:id="rId1" sheetId="2"/>
-    <sheet name="Login" r:id="rId2" sheetId="3"/>
-    <sheet name="NewBillPayment" r:id="rId3" sheetId="1"/>
-    <sheet name="NewBillPaymentwithCards" r:id="rId4" sheetId="11"/>
-    <sheet name="SaveTheBillers" r:id="rId5" sheetId="14"/>
-    <sheet name="MyOwn" r:id="rId6" sheetId="6"/>
-    <sheet name="TransferWithInAjman" r:id="rId7" sheetId="7"/>
-    <sheet name="TransferWithInUAE" r:id="rId8" sheetId="8"/>
-    <sheet name="TransferToInternational" r:id="rId9" sheetId="9"/>
-    <sheet name="ProfileSettings_MobileNumber" r:id="rId10" sheetId="4"/>
-    <sheet name="ProfileSettings_EmailAddress" r:id="rId11" sheetId="5"/>
-    <sheet name="CardPayment" r:id="rId12" sheetId="10"/>
-    <sheet name="MultipleBillPayment" r:id="rId13" sheetId="12"/>
+    <sheet name="Registration" sheetId="2" r:id="rId1"/>
+    <sheet name="Login" sheetId="3" r:id="rId2"/>
+    <sheet name="NewBillPayment" sheetId="1" r:id="rId3"/>
+    <sheet name="NewBillPaymentwithCards" sheetId="11" r:id="rId4"/>
+    <sheet name="SaveTheBillers" sheetId="14" r:id="rId5"/>
+    <sheet name="MyOwn" sheetId="6" r:id="rId6"/>
+    <sheet name="TransferWithInAjman" sheetId="7" r:id="rId7"/>
+    <sheet name="TransferWithInUAE" sheetId="8" r:id="rId8"/>
+    <sheet name="TransferToInternational" sheetId="9" r:id="rId9"/>
+    <sheet name="DonationTransfer" sheetId="15" r:id="rId10"/>
+    <sheet name="ProfileSettings_MobileNumber" sheetId="4" r:id="rId11"/>
+    <sheet name="ProfileSettings_EmailAddress" sheetId="5" r:id="rId12"/>
+    <sheet name="CardPayment" sheetId="10" r:id="rId13"/>
+    <sheet name="MultipleBillPayment" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="109">
   <si>
     <t>biller</t>
   </si>
@@ -293,17 +294,80 @@
   </si>
   <si>
     <t>Biller Du Saved Successfully with consumer number 599588538</t>
+  </si>
+  <si>
+    <t>25.00
+GBP
+(106.57 AED)
+Transfer Failed
+ICF
+United Kingdom
+GB57COUT1800020533051
+COUTTS AND COMPANY
+Description
+Reference ID</t>
+  </si>
+  <si>
+    <t>Email Address Not Updated. Please Try Again</t>
+  </si>
+  <si>
+    <t>Biller ADDC Saved Successfully with consumer number 8235355929</t>
+  </si>
+  <si>
+    <t>Multiple Bill Payment Successful with Amount - 3682.78</t>
+  </si>
+  <si>
+    <t>test2Hastra2@testing.com</t>
   </si>
   <si>
     <t>100.00
 AED
+Paid To
+Roadmiles - Platinum
+4285720304320212
+Reference ID
+FT23093PR6XD</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+Paid To
+FEWA
+FEWA
+210000137777
+Reference ID
+22101457087446</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+(13.66 USD)
+Paid To
+DU
+du Postpaid
+599588538
+Reference ID
+22101393564012</t>
+  </si>
+  <si>
+    <t>200.51
+AED
+Paid To
+ADDC
+ADDC
+8235355929
+Reference ID
+2210315541150</t>
+  </si>
+  <si>
+    <t>100.00
+USD
+(368.60 AED)
 Transfer to
-Short.name 1074784
-011074784027
-Ajman Bank
-Description
+Savings Account
+011103138023
 Reference ID
-FT23089TYGYJ</t>
+FT23093BLCKX</t>
   </si>
   <si>
     <t>100.00
@@ -314,7 +378,7 @@
 Citibank NA
 Description
 Reference ID
-FT23089M4RZ4</t>
+FT230939R2JC</t>
   </si>
   <si>
     <t>2,200.00
@@ -328,7 +392,7 @@
 HDFC BANK LIMITED
 Description
 Reference ID
-FT23089DJWFL</t>
+FT23093V05WJ</t>
   </si>
   <si>
     <t>30.00
@@ -342,19 +406,7 @@
 CHASE INVESTMENT COUNSEL CORPORATION
 Description
 Reference ID
-FT23089GKW8X</t>
-  </si>
-  <si>
-    <t>25.00
-GBP
-(106.57 AED)
-Transfer Failed
-ICF
-United Kingdom
-GB57COUT1800020533051
-COUTTS AND COMPANY
-Description
-Reference ID</t>
+FT230939W1GG</t>
   </si>
   <si>
     <t>30.00
@@ -368,10 +420,7 @@
 NATIXIS FACTOR
 Description
 Reference ID
-FT23089S245W</t>
-  </si>
-  <si>
-    <t>Email Address Not Updated. Please Try Again</t>
+FT2309370HPQ</t>
   </si>
   <si>
     <t>100.00
@@ -380,148 +429,22 @@
 NASER AL HAT011
 5309 1822 5332 1312
 Reference ID
-FT23089NXZFW</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Paid To
-Roadmiles - Platinum
-4285720304320212
-Reference ID
-FT230892VSD2</t>
-  </si>
-  <si>
-    <t>Biller ADDC Saved Successfully with consumer number 8235355929</t>
-  </si>
-  <si>
-    <t>50.00
-AED
-Paid To
-FEWA
-FEWA
-210000137777
-Reference ID
-2210561854599</t>
-  </si>
-  <si>
-    <t>50.00
-AED
-(13.66 USD)
-Paid To
-DU
-du Postpaid
-599588538
-Reference ID
-2210271021421</t>
-  </si>
-  <si>
-    <t>200.51
-AED
-Paid To
-ADDC
-ADDC
-8235355929
-Reference ID
-22101518932802</t>
-  </si>
-  <si>
-    <t>Multiple Bill Payment Successful with Amount - 3682.78</t>
-  </si>
-  <si>
-    <t>100.00
-USD
-(368.60 AED)
-Transfer to
-Savings Account
-011103138023
-Reference ID
-FT23090M2YCS</t>
-  </si>
-  <si>
-    <t>test2Hastra2@testing.com</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Transfer to
-Short.name 1074784
-011074784027
-Ajman Bank
-Description
-Reference ID
-FT23090M9TNG</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Transfer to
-test
-AE400211000000220294021
-Citibank NA
-Description
-Reference ID
-FT23090W3VGS</t>
-  </si>
-  <si>
-    <t>2,200.00
-INR
-(134.24 AED)
-Submitted
-You will be notified once your payment is successful
-Test
-India
-372073000000786
-HDFC BANK LIMITED
-Description
-Reference ID
-FT23090L8MS5</t>
-  </si>
-  <si>
-    <t>30.00
-USD
-(142.08 AED)
-Submitted
-You will be notified once your payment is successful
-Terence
-United States Of America
-903013089
-CHASE INVESTMENT COUNSEL CORPORATION
-Description
-Reference ID
-FT23090RG79F</t>
-  </si>
-  <si>
-    <t>30.00
-USD
-(142.08 AED)
-Submitted
-You will be notified once your payment is successful
-AKS Natixis Bk
-France
-FR7630007999992738468400131
-NATIXIS FACTOR
-Description
-Reference ID
-FT230900M67F</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Paid To
-Roadmiles - Platinum
-4285720304320212
-Reference ID
-FT23090SC4M3</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Paid To
-Roadmiles - Platinum
-4285720304320212
-Reference ID
-FT23090K9CQ2</t>
+FT23093W44DW</t>
+  </si>
+  <si>
+    <t>DonationName</t>
+  </si>
+  <si>
+    <t>Humaid Bin Rashid AL Nouimi</t>
+  </si>
+  <si>
+    <t>Zakat Fund-Zakat Al Mal</t>
+  </si>
+  <si>
+    <t>Zakat Fund-Al Sadaqat</t>
+  </si>
+  <si>
+    <t>Zakat Fund-Zakat Al Fitr</t>
   </si>
 </sst>
 </file>
@@ -587,55 +510,76 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="1" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="2" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="4" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="2" numFmtId="1" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -644,10 +588,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -803,7 +747,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -812,13 +756,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -828,7 +772,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -837,7 +781,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -846,7 +790,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -856,12 +800,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -892,7 +836,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -911,7 +855,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -924,7 +868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -932,16 +876,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="6" width="23.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.7109375" style="6" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="17" spans="1:7">
+    <row r="1" spans="1:7" s="17" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
@@ -988,14 +932,117 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="5">
+        <v>100</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="5">
+        <v>100</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -1003,13 +1050,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="14" width="11.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="14" width="18.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="38.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="34.62109375" collapsed="true"/>
+    <col min="1" max="1" width="11.85546875" style="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="17" spans="1:4">
+    <row r="1" spans="1:4" s="17" customFormat="1">
       <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
@@ -1038,28 +1085,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="41.3203125" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="17" spans="1:4">
+    <row r="1" spans="1:4" s="17" customFormat="1">
       <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
@@ -1078,26 +1125,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1105,15 +1152,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.99609375" collapsed="true"/>
+    <col min="1" max="2" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -1157,7 +1204,7 @@
         <v>100</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1177,18 +1224,18 @@
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
@@ -1196,13 +1243,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="1" max="1" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="51" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -1227,17 +1274,17 @@
         <v>72</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -1245,14 +1292,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="3" max="3" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="17" spans="1:7">
+    <row r="1" spans="1:7" s="17" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
@@ -1293,7 +1340,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -1308,19 +1355,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="6" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="5" width="18.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="6" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="35.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="15.75" r="1" s="9" spans="1:10">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.75">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -1378,7 +1425,7 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1407,7 +1454,7 @@
         <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1427,18 +1474,18 @@
         <v>78</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -1446,17 +1493,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -1562,13 +1609,13 @@
       <c r="J4" s="7"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -1576,17 +1623,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="63.7109375" collapsed="true"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="63.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -1690,17 +1737,17 @@
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -1708,15 +1755,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -1750,77 +1797,85 @@
         <v>100</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.78515625" collapsed="true"/>
+    <col min="1" max="1" width="21" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="27">
         <v>100</v>
       </c>
-      <c r="F2" t="s">
-        <v>105</v>
-      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="F5" s="7"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -1828,15 +1883,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -1870,17 +1925,17 @@
         <v>100</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1888,23 +1943,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="47.484375" collapsed="true"/>
+    <col min="1" max="1" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="24" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="47.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -1986,7 +2041,7 @@
         <v>2200</v>
       </c>
       <c r="O2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2024,7 +2079,7 @@
         <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2059,7 +2114,7 @@
         <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2094,10 +2149,10 @@
         <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test Data/Ajman SuperApp - Test Data.xlsx
+++ b/Test Data/Ajman SuperApp - Test Data.xlsx
@@ -4,30 +4,30 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" firstSheet="6" activeTab="9"/>
+    <workbookView activeTab="6" firstSheet="2" windowHeight="7950" windowWidth="20055" xWindow="240" yWindow="60"/>
   </bookViews>
   <sheets>
-    <sheet name="Registration" sheetId="2" r:id="rId1"/>
-    <sheet name="Login" sheetId="3" r:id="rId2"/>
-    <sheet name="NewBillPayment" sheetId="1" r:id="rId3"/>
-    <sheet name="NewBillPaymentwithCards" sheetId="11" r:id="rId4"/>
-    <sheet name="SaveTheBillers" sheetId="14" r:id="rId5"/>
-    <sheet name="MyOwn" sheetId="6" r:id="rId6"/>
-    <sheet name="TransferWithInAjman" sheetId="7" r:id="rId7"/>
-    <sheet name="TransferWithInUAE" sheetId="8" r:id="rId8"/>
-    <sheet name="TransferToInternational" sheetId="9" r:id="rId9"/>
-    <sheet name="DonationTransfer" sheetId="15" r:id="rId10"/>
-    <sheet name="ProfileSettings_MobileNumber" sheetId="4" r:id="rId11"/>
-    <sheet name="ProfileSettings_EmailAddress" sheetId="5" r:id="rId12"/>
-    <sheet name="CardPayment" sheetId="10" r:id="rId13"/>
-    <sheet name="MultipleBillPayment" sheetId="12" r:id="rId14"/>
+    <sheet name="Registration" r:id="rId1" sheetId="2"/>
+    <sheet name="Login" r:id="rId2" sheetId="3"/>
+    <sheet name="NewBillPayment" r:id="rId3" sheetId="1"/>
+    <sheet name="NewBillPaymentwithCards" r:id="rId4" sheetId="11"/>
+    <sheet name="SaveTheBillers" r:id="rId5" sheetId="14"/>
+    <sheet name="MyOwnAccount" r:id="rId6" sheetId="6"/>
+    <sheet name="TransferWithInAjman" r:id="rId7" sheetId="7"/>
+    <sheet name="TransferWithInUAE" r:id="rId8" sheetId="8"/>
+    <sheet name="TransferToInternational" r:id="rId9" sheetId="9"/>
+    <sheet name="TransfertoCharityOrganization" r:id="rId10" sheetId="15"/>
+    <sheet name="ProfileSettings_MobileNumber" r:id="rId11" sheetId="4"/>
+    <sheet name="ProfileSettings_EmailAddress" r:id="rId12" sheetId="5"/>
+    <sheet name="CardPayment" r:id="rId13" sheetId="10"/>
+    <sheet name="MultipleBillPayment" r:id="rId14" sheetId="12"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="147">
   <si>
     <t>biller</t>
   </si>
@@ -329,37 +329,6 @@
 FT23093PR6XD</t>
   </si>
   <si>
-    <t>50.00
-AED
-Paid To
-FEWA
-FEWA
-210000137777
-Reference ID
-22101457087446</t>
-  </si>
-  <si>
-    <t>50.00
-AED
-(13.66 USD)
-Paid To
-DU
-du Postpaid
-599588538
-Reference ID
-22101393564012</t>
-  </si>
-  <si>
-    <t>200.51
-AED
-Paid To
-ADDC
-ADDC
-8235355929
-Reference ID
-2210315541150</t>
-  </si>
-  <si>
     <t>100.00
 USD
 (368.60 AED)
@@ -445,6 +414,438 @@
   </si>
   <si>
     <t>Zakat Fund-Zakat Al Fitr</t>
+  </si>
+  <si>
+    <t>Salik</t>
+  </si>
+  <si>
+    <t>SALIK</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+Paid To
+FEWA
+FEWA
+210000137777
+Reference ID
+2210882987592</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+(13.66 USD)
+Paid To
+DU
+du Postpaid
+599588538
+Reference ID
+22102030850944</t>
+  </si>
+  <si>
+    <t>200.51
+AED
+Paid To
+ADDC
+ADDC
+8235355929
+Reference ID
+22101055438748</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+Paid To
+SALIK
+SALIK
+32100001
+Reference ID
+2210468690840</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+Paid To
+FEWA
+FEWA
+210000137777
+Reference ID
+22101578623579</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+(13.66 USD)
+Paid To
+DU
+du Postpaid
+599588538
+Reference ID
+2210109602264</t>
+  </si>
+  <si>
+    <t>200.51
+AED
+Paid To
+ADDC
+ADDC
+8235355929
+Reference ID
+2210610489252</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+Paid To
+SALIK
+SALIK
+32100001
+Reference ID
+22101983799526</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Transfer to
+Short.name 1074784
+011074784027
+Ajman Bank
+Description
+Reference ID
+FT23095WW9LF</t>
+  </si>
+  <si>
+    <t>100.00
+USD
+(368.60 AED)
+Transfer to
+Savings Account
+011103138023
+Reference ID
+FT23095KJGYM</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Transfer to
+test
+AE400211000000220294021
+Citibank NA
+Description
+Reference ID
+FT23095T3JTM</t>
+  </si>
+  <si>
+    <t>2,200.00
+INR
+(134.24 AED)
+Submitted
+You will be notified once your payment is successful
+Test
+India
+372073000000786
+HDFC BANK LIMITED
+Description
+Reference ID
+FT230956F6VS</t>
+  </si>
+  <si>
+    <t>30.00
+USD
+(142.08 AED)
+Submitted
+You will be notified once your payment is successful
+Terence
+United States Of America
+903013089
+CHASE INVESTMENT COUNSEL CORPORATION
+Description
+Reference ID
+FT23095KKHSS</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+Paid To
+FEWA
+FEWA
+210000137777
+Reference ID
+2210569314444</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+(13.66 USD)
+Paid To
+DU
+du Postpaid
+599588538
+Reference ID
+2210976068421</t>
+  </si>
+  <si>
+    <t>200.51
+AED
+Paid To
+ADDC
+ADDC
+8235355929
+Reference ID
+22101905912377</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+Paid To
+SALIK
+SALIK
+32100001
+Reference ID
+22101122318583</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Transfer to
+Short.name 1074784
+011074784027
+Ajman Bank
+Description
+Reference ID
+FT23095Z5CS4</t>
+  </si>
+  <si>
+    <t>100.00
+USD
+(368.60 AED)
+Transfer to
+Savings Account
+011103138023
+Reference ID
+FT23095F1TCJ</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Transfer to
+test
+AE400211000000220294021
+Citibank NA
+Description
+Reference ID
+FT23095F5QHQ</t>
+  </si>
+  <si>
+    <t>2,200.00
+INR
+(134.24 AED)
+Submitted
+You will be notified once your payment is successful
+Test
+India
+372073000000786
+HDFC BANK LIMITED
+Description
+Reference ID
+FT23095CL7DQ</t>
+  </si>
+  <si>
+    <t>30.00
+USD
+(142.08 AED)
+Submitted
+You will be notified once your payment is successful
+Terence
+United States Of America
+903013089
+CHASE INVESTMENT COUNSEL CORPORATION
+Description
+Reference ID
+FT23095C086G</t>
+  </si>
+  <si>
+    <t>30.00
+USD
+(142.08 AED)
+Submitted
+You will be notified once your payment is successful
+AKS Natixis Bk
+France
+FR7630007999992738468400131
+NATIXIS FACTOR
+Description
+Reference ID
+FT230950KPPR</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Humaid Bin Rashid AL Nouimi
+Charity Organization
+Reference ID
+011103138011</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Zakat Fund-Zakat Al Mal
+Charity Organization
+Reference ID
+011103138011</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Zakat Fund-Al Sadaqat
+Charity Organization
+Reference ID
+011103138011</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Zakat Fund-Zakat Al Fitr
+Charity Organization
+Reference ID
+011103138011</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Paid To
+NASER AL HAT011
+5309 1822 5332 1312
+Reference ID
+FT230950X682</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+Paid To
+FEWA
+FEWA
+210000137777
+Reference ID
+2210348118962</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+(13.66 USD)
+Paid To
+DU
+du Postpaid
+599588538
+Reference ID
+22101848207546</t>
+  </si>
+  <si>
+    <t>200.51
+AED
+Paid To
+ADDC
+ADDC
+8235355929
+Reference ID
+22101151145086</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+Paid To
+SALIK
+SALIK
+32100001
+Reference ID
+2210193752232</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Transfer to
+Short.name 1074784
+011074784027
+Ajman Bank
+Description
+Reference ID
+FT230964MY46</t>
+  </si>
+  <si>
+    <t>100.00
+USD
+(368.60 AED)
+Transfer to
+Savings Account
+011103138023
+Reference ID
+FT230967R6HX</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Transfer to
+test
+AE400211000000220294021
+Citibank NA
+Description
+Reference ID
+FT23096KN0YH</t>
+  </si>
+  <si>
+    <t>2,200.00
+INR
+(134.24 AED)
+Submitted
+You will be notified once your payment is successful
+Test
+India
+372073000000786
+HDFC BANK LIMITED
+Description
+Reference ID
+FT23096RHR1X</t>
+  </si>
+  <si>
+    <t>30.00
+USD
+(142.08 AED)
+Submitted
+You will be notified once your payment is successful
+Terence
+United States Of America
+903013089
+CHASE INVESTMENT COUNSEL CORPORATION
+Description
+Reference ID
+FT230960KKMR</t>
+  </si>
+  <si>
+    <t>30.00
+USD
+(142.08 AED)
+Submitted
+You will be notified once your payment is successful
+AKS Natixis Bk
+France
+FR7630007999992738468400131
+NATIXIS FACTOR
+Description
+Reference ID
+FT230961D78M</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Paid To
+NASER AL HAT011
+5309 1822 5332 1312
+Reference ID
+FT23096Z3B0T</t>
   </si>
 </sst>
 </file>
@@ -510,76 +911,76 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="1" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="4" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="2" numFmtId="1" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="2" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -588,10 +989,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -747,7 +1148,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -756,13 +1157,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -772,7 +1173,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -781,7 +1182,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -790,7 +1191,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -800,12 +1201,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -836,7 +1237,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -855,7 +1256,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -868,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -876,16 +1277,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.7109375" style="6" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="6" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.37890625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1">
+    <row customFormat="1" r="1" s="17" spans="1:7">
       <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
@@ -932,35 +1333,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.5078125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row ht="15.75" r="1" spans="1:6">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>31</v>
@@ -980,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>78</v>
@@ -988,14 +1389,16 @@
       <c r="D2" s="5">
         <v>100</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>78</v>
@@ -1003,14 +1406,16 @@
       <c r="D3" s="5">
         <v>100</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>78</v>
@@ -1018,14 +1423,16 @@
       <c r="D4" s="5">
         <v>100</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>78</v>
@@ -1033,16 +1440,18 @@
       <c r="D5" s="5">
         <v>100</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -1050,13 +1459,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="14" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="14" width="11.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="14" width="18.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="34.62109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1">
+    <row customFormat="1" r="1" s="17" spans="1:4">
       <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
@@ -1085,14 +1494,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1100,13 +1509,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.03125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1">
+    <row customFormat="1" r="1" s="17" spans="1:4">
       <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
@@ -1131,20 +1540,20 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1152,15 +1561,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="20.3671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row ht="15.75" r="1" spans="1:8">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -1204,7 +1613,7 @@
         <v>100</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1228,28 +1637,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="51.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row ht="15.75" r="1" spans="1:4">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -1278,13 +1687,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -1292,14 +1701,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="36.0703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1">
+    <row customFormat="1" r="1" s="17" spans="1:7">
       <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
@@ -1340,34 +1749,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" style="6" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="18.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="7" width="16.64453125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="35.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="1" s="9" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -1425,7 +1834,7 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1454,7 +1863,7 @@
         <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1474,18 +1883,41 @@
         <v>78</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="3">
+        <v>32100001</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5">
+        <v>6843</v>
+      </c>
+      <c r="J5" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -1493,17 +1925,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row ht="15.75" r="1" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -1609,13 +2041,13 @@
       <c r="J4" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -1623,17 +2055,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="63.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="63.70703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row ht="15.75" r="1" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -1741,13 +2173,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -1755,15 +2187,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.4921875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row ht="15.75" r="1" spans="1:6">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -1797,33 +2229,33 @@
         <v>100</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.78515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row ht="15.75" r="1" spans="1:6">
       <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
@@ -1857,25 +2289,18 @@
         <v>100</v>
       </c>
       <c r="E2" s="25"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="F5" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -1883,15 +2308,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row ht="15.75" r="1" spans="1:6">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -1925,17 +2350,17 @@
         <v>100</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1943,23 +2368,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="24" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="47.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="47.484375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75">
+    <row ht="15.75" r="1" spans="1:15">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -2041,7 +2466,7 @@
         <v>2200</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2079,7 +2504,7 @@
         <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2149,10 +2574,10 @@
         <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Test Data/Ajman SuperApp - Test Data.xlsx
+++ b/Test Data/Ajman SuperApp - Test Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="2" windowHeight="7950" windowWidth="20055" xWindow="240" yWindow="60"/>
+    <workbookView activeTab="13" firstSheet="10" windowHeight="7950" windowWidth="20055" xWindow="240" yWindow="60"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" r:id="rId1" sheetId="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="133">
   <si>
     <t>biller</t>
   </si>
@@ -308,9 +308,6 @@
 Reference ID</t>
   </si>
   <si>
-    <t>Email Address Not Updated. Please Try Again</t>
-  </si>
-  <si>
     <t>Biller ADDC Saved Successfully with consumer number 8235355929</t>
   </si>
   <si>
@@ -327,6 +324,115 @@
 4285720304320212
 Reference ID
 FT23093PR6XD</t>
+  </si>
+  <si>
+    <t>DonationName</t>
+  </si>
+  <si>
+    <t>Humaid Bin Rashid AL Nouimi</t>
+  </si>
+  <si>
+    <t>Zakat Fund-Zakat Al Mal</t>
+  </si>
+  <si>
+    <t>Zakat Fund-Al Sadaqat</t>
+  </si>
+  <si>
+    <t>Zakat Fund-Zakat Al Fitr</t>
+  </si>
+  <si>
+    <t>Salik</t>
+  </si>
+  <si>
+    <t>SALIK</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Humaid Bin Rashid AL Nouimi
+Charity Organization
+Reference ID
+011103138011</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Zakat Fund-Zakat Al Mal
+Charity Organization
+Reference ID
+011103138011</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Zakat Fund-Al Sadaqat
+Charity Organization
+Reference ID
+011103138011</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Zakat Fund-Zakat Al Fitr
+Charity Organization
+Reference ID
+011103138011</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+Paid To
+FEWA
+FEWA
+210000137777
+Reference ID
+2210348118962</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+(13.66 USD)
+Paid To
+DU
+du Postpaid
+599588538
+Reference ID
+22101848207546</t>
+  </si>
+  <si>
+    <t>200.51
+AED
+Paid To
+ADDC
+ADDC
+8235355929
+Reference ID
+22101151145086</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+Paid To
+SALIK
+SALIK
+32100001
+Reference ID
+2210193752232</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Transfer to
+Short.name 1074784
+011074784027
+Ajman Bank
+Description
+Reference ID
+FT230964MY46</t>
   </si>
   <si>
     <t>100.00
@@ -336,7 +442,7 @@
 Savings Account
 011103138023
 Reference ID
-FT23093BLCKX</t>
+FT230967R6HX</t>
   </si>
   <si>
     <t>100.00
@@ -347,7 +453,7 @@
 Citibank NA
 Description
 Reference ID
-FT230939R2JC</t>
+FT23096KN0YH</t>
   </si>
   <si>
     <t>2,200.00
@@ -361,7 +467,7 @@
 HDFC BANK LIMITED
 Description
 Reference ID
-FT23093V05WJ</t>
+FT23096RHR1X</t>
   </si>
   <si>
     <t>30.00
@@ -375,7 +481,7 @@
 CHASE INVESTMENT COUNSEL CORPORATION
 Description
 Reference ID
-FT230939W1GG</t>
+FT230960KKMR</t>
   </si>
   <si>
     <t>30.00
@@ -389,7 +495,7 @@
 NATIXIS FACTOR
 Description
 Reference ID
-FT2309370HPQ</t>
+FT230961D78M</t>
   </si>
   <si>
     <t>100.00
@@ -398,28 +504,10 @@
 NASER AL HAT011
 5309 1822 5332 1312
 Reference ID
-FT23093W44DW</t>
-  </si>
-  <si>
-    <t>DonationName</t>
-  </si>
-  <si>
-    <t>Humaid Bin Rashid AL Nouimi</t>
-  </si>
-  <si>
-    <t>Zakat Fund-Zakat Al Mal</t>
-  </si>
-  <si>
-    <t>Zakat Fund-Al Sadaqat</t>
-  </si>
-  <si>
-    <t>Zakat Fund-Zakat Al Fitr</t>
-  </si>
-  <si>
-    <t>Salik</t>
-  </si>
-  <si>
-    <t>SALIK</t>
+FT23096Z3B0T</t>
+  </si>
+  <si>
+    <t>0599588538</t>
   </si>
   <si>
     <t>50.00
@@ -429,7 +517,7 @@
 FEWA
 210000137777
 Reference ID
-2210882987592</t>
+22101469349854</t>
   </si>
   <si>
     <t>50.00
@@ -438,9 +526,9 @@
 Paid To
 DU
 du Postpaid
-599588538
-Reference ID
-22102030850944</t>
+0599588538
+Reference ID
+2210416831275</t>
   </si>
   <si>
     <t>200.51
@@ -450,7 +538,7 @@
 ADDC
 8235355929
 Reference ID
-22101055438748</t>
+22101057041035</t>
   </si>
   <si>
     <t>50.00
@@ -460,48 +548,10 @@
 SALIK
 32100001
 Reference ID
-2210468690840</t>
-  </si>
-  <si>
-    <t>50.00
-AED
-Paid To
-FEWA
-FEWA
-210000137777
-Reference ID
-22101578623579</t>
-  </si>
-  <si>
-    <t>50.00
-AED
-(13.66 USD)
-Paid To
-DU
-du Postpaid
-599588538
-Reference ID
-2210109602264</t>
-  </si>
-  <si>
-    <t>200.51
-AED
-Paid To
-ADDC
-ADDC
-8235355929
-Reference ID
-2210610489252</t>
-  </si>
-  <si>
-    <t>50.00
-AED
-Paid To
-SALIK
-SALIK
-32100001
-Reference ID
-22101983799526</t>
+22101978101086</t>
+  </si>
+  <si>
+    <t>Biller Du Saved Successfully with consumer number 0599588538</t>
   </si>
   <si>
     <t>100.00
@@ -512,7 +562,7 @@
 Ajman Bank
 Description
 Reference ID
-FT23095WW9LF</t>
+FT231034GDQB</t>
   </si>
   <si>
     <t>100.00
@@ -522,7 +572,7 @@
 Savings Account
 011103138023
 Reference ID
-FT23095KJGYM</t>
+FT23103DDP64</t>
   </si>
   <si>
     <t>100.00
@@ -533,7 +583,7 @@
 Citibank NA
 Description
 Reference ID
-FT23095T3JTM</t>
+FT23103Z75ZM</t>
   </si>
   <si>
     <t>2,200.00
@@ -547,7 +597,7 @@
 HDFC BANK LIMITED
 Description
 Reference ID
-FT230956F6VS</t>
+FT231035YWB3</t>
   </si>
   <si>
     <t>30.00
@@ -561,108 +611,7 @@
 CHASE INVESTMENT COUNSEL CORPORATION
 Description
 Reference ID
-FT23095KKHSS</t>
-  </si>
-  <si>
-    <t>50.00
-AED
-Paid To
-FEWA
-FEWA
-210000137777
-Reference ID
-2210569314444</t>
-  </si>
-  <si>
-    <t>50.00
-AED
-(13.66 USD)
-Paid To
-DU
-du Postpaid
-599588538
-Reference ID
-2210976068421</t>
-  </si>
-  <si>
-    <t>200.51
-AED
-Paid To
-ADDC
-ADDC
-8235355929
-Reference ID
-22101905912377</t>
-  </si>
-  <si>
-    <t>50.00
-AED
-Paid To
-SALIK
-SALIK
-32100001
-Reference ID
-22101122318583</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Transfer to
-Short.name 1074784
-011074784027
-Ajman Bank
-Description
-Reference ID
-FT23095Z5CS4</t>
-  </si>
-  <si>
-    <t>100.00
-USD
-(368.60 AED)
-Transfer to
-Savings Account
-011103138023
-Reference ID
-FT23095F1TCJ</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Transfer to
-test
-AE400211000000220294021
-Citibank NA
-Description
-Reference ID
-FT23095F5QHQ</t>
-  </si>
-  <si>
-    <t>2,200.00
-INR
-(134.24 AED)
-Submitted
-You will be notified once your payment is successful
-Test
-India
-372073000000786
-HDFC BANK LIMITED
-Description
-Reference ID
-FT23095CL7DQ</t>
-  </si>
-  <si>
-    <t>30.00
-USD
-(142.08 AED)
-Submitted
-You will be notified once your payment is successful
-Terence
-United States Of America
-903013089
-CHASE INVESTMENT COUNSEL CORPORATION
-Description
-Reference ID
-FT23095C086G</t>
+FT231032LWQX</t>
   </si>
   <si>
     <t>30.00
@@ -676,7 +625,7 @@
 NATIXIS FACTOR
 Description
 Reference ID
-FT230950KPPR</t>
+FT23103YQMR0</t>
   </si>
   <si>
     <t>100.00
@@ -685,7 +634,7 @@
 Humaid Bin Rashid AL Nouimi
 Charity Organization
 Reference ID
-011103138011</t>
+FT231036FRRX</t>
   </si>
   <si>
     <t>100.00
@@ -694,7 +643,7 @@
 Zakat Fund-Zakat Al Mal
 Charity Organization
 Reference ID
-011103138011</t>
+FT231036VXWW</t>
   </si>
   <si>
     <t>100.00
@@ -703,7 +652,7 @@
 Zakat Fund-Al Sadaqat
 Charity Organization
 Reference ID
-011103138011</t>
+FT23103JLG6M</t>
   </si>
   <si>
     <t>100.00
@@ -712,78 +661,7 @@
 Zakat Fund-Zakat Al Fitr
 Charity Organization
 Reference ID
-011103138011</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Paid To
-NASER AL HAT011
-5309 1822 5332 1312
-Reference ID
-FT230950X682</t>
-  </si>
-  <si>
-    <t>50.00
-AED
-Paid To
-FEWA
-FEWA
-210000137777
-Reference ID
-2210348118962</t>
-  </si>
-  <si>
-    <t>50.00
-AED
-(13.66 USD)
-Paid To
-DU
-du Postpaid
-599588538
-Reference ID
-22101848207546</t>
-  </si>
-  <si>
-    <t>200.51
-AED
-Paid To
-ADDC
-ADDC
-8235355929
-Reference ID
-22101151145086</t>
-  </si>
-  <si>
-    <t>50.00
-AED
-Paid To
-SALIK
-SALIK
-32100001
-Reference ID
-2210193752232</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Transfer to
-Short.name 1074784
-011074784027
-Ajman Bank
-Description
-Reference ID
-FT230964MY46</t>
-  </si>
-  <si>
-    <t>100.00
-USD
-(368.60 AED)
-Transfer to
-Savings Account
-011103138023
-Reference ID
-FT230967R6HX</t>
+FT23103QKNY6</t>
   </si>
   <si>
     <t>100.00
@@ -794,58 +672,7 @@
 Citibank NA
 Description
 Reference ID
-FT23096KN0YH</t>
-  </si>
-  <si>
-    <t>2,200.00
-INR
-(134.24 AED)
-Submitted
-You will be notified once your payment is successful
-Test
-India
-372073000000786
-HDFC BANK LIMITED
-Description
-Reference ID
-FT23096RHR1X</t>
-  </si>
-  <si>
-    <t>30.00
-USD
-(142.08 AED)
-Submitted
-You will be notified once your payment is successful
-Terence
-United States Of America
-903013089
-CHASE INVESTMENT COUNSEL CORPORATION
-Description
-Reference ID
-FT230960KKMR</t>
-  </si>
-  <si>
-    <t>30.00
-USD
-(142.08 AED)
-Submitted
-You will be notified once your payment is successful
-AKS Natixis Bk
-France
-FR7630007999992738468400131
-NATIXIS FACTOR
-Description
-Reference ID
-FT230961D78M</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Paid To
-NASER AL HAT011
-5309 1822 5332 1312
-Reference ID
-FT23096Z3B0T</t>
+FT23103SGYGB</t>
   </si>
 </sst>
 </file>
@@ -917,7 +744,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -973,6 +800,9 @@
     </xf>
     <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1361,7 +1191,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>31</v>
@@ -1381,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>78</v>
@@ -1390,7 +1220,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1398,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>78</v>
@@ -1407,7 +1237,7 @@
         <v>100</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1415,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>78</v>
@@ -1424,7 +1254,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1432,7 +1262,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>78</v>
@@ -1441,7 +1271,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -1566,7 +1396,7 @@
     <col min="5" max="5" customWidth="true" width="24.42578125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="20.3671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="15.75" r="1" spans="1:8">
@@ -1613,7 +1443,7 @@
         <v>100</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1633,7 +1463,7 @@
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1646,7 +1476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1683,7 +1513,7 @@
         <v>72</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +1589,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1834,7 +1664,7 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1847,8 +1677,8 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
-        <v>599588538</v>
+      <c r="D3" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="E3" s="4">
         <v>50</v>
@@ -1863,7 +1693,7 @@
         <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1883,7 +1713,7 @@
         <v>78</v>
       </c>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1891,10 +1721,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D5" s="3">
         <v>32100001</v>
@@ -1906,7 +1736,7 @@
         <v>6843</v>
       </c>
       <c r="J5" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1920,7 +1750,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2004,8 +1834,8 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
-        <v>599588538</v>
+      <c r="D3" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="E3" s="4">
         <v>50</v>
@@ -2050,7 +1880,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2134,8 +1964,8 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
-        <v>599588538</v>
+      <c r="D3" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="E3" s="4">
         <v>50</v>
@@ -2148,7 +1978,7 @@
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="7" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2169,7 +1999,7 @@
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2229,7 +2059,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2241,7 +2071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2290,7 +2120,7 @@
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="7" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2350,7 +2180,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2466,7 +2296,7 @@
         <v>2200</v>
       </c>
       <c r="O2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2504,7 +2334,7 @@
         <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2574,7 +2404,7 @@
         <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Ajman SuperApp - Test Data.xlsx
+++ b/Test Data/Ajman SuperApp - Test Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="13" firstSheet="10" windowHeight="7950" windowWidth="20055" xWindow="240" yWindow="60"/>
+    <workbookView activeTab="12" firstSheet="10" windowHeight="7950" windowWidth="20055" xWindow="240" yWindow="60"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" r:id="rId1" sheetId="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="125">
   <si>
     <t>biller</t>
   </si>
@@ -77,9 +77,6 @@
     <t>CardNumber</t>
   </si>
   <si>
-    <t>CardType</t>
-  </si>
-  <si>
     <t>CardPin</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>CreditCardNumber</t>
   </si>
   <si>
-    <t>5309182253321312</t>
-  </si>
-  <si>
     <t>cardLastFourDigits</t>
   </si>
   <si>
@@ -284,16 +278,10 @@
     <t>CardLastFourDigits</t>
   </si>
   <si>
-    <t>Debit Card</t>
-  </si>
-  <si>
     <t>Dashboard Details Verified Successfully</t>
   </si>
   <si>
     <t>Biller FEWA Saved Successfully with consumer number 210000137777</t>
-  </si>
-  <si>
-    <t>Biller Du Saved Successfully with consumer number 599588538</t>
   </si>
   <si>
     <t>25.00
@@ -349,38 +337,17 @@
   <si>
     <t>100.00
 AED
-Donated to
-Humaid Bin Rashid AL Nouimi
-Charity Organization
+Paid To
+NASER AL HAT011
+5309 1822 5332 1312
 Reference ID
-011103138011</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Donated to
-Zakat Fund-Zakat Al Mal
-Charity Organization
-Reference ID
-011103138011</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Donated to
-Zakat Fund-Al Sadaqat
-Charity Organization
-Reference ID
-011103138011</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Donated to
-Zakat Fund-Zakat Al Fitr
-Charity Organization
-Reference ID
-011103138011</t>
+FT23096Z3B0T</t>
+  </si>
+  <si>
+    <t>0599588538</t>
+  </si>
+  <si>
+    <t>Biller Du Saved Successfully with consumer number 0599588538</t>
   </si>
   <si>
     <t>50.00
@@ -390,7 +357,7 @@
 FEWA
 210000137777
 Reference ID
-2210348118962</t>
+22101958970746</t>
   </si>
   <si>
     <t>50.00
@@ -399,9 +366,9 @@
 Paid To
 DU
 du Postpaid
-599588538
+0599588538
 Reference ID
-22101848207546</t>
+2210718130610</t>
   </si>
   <si>
     <t>200.51
@@ -411,7 +378,7 @@
 ADDC
 8235355929
 Reference ID
-22101151145086</t>
+2210898757535</t>
   </si>
   <si>
     <t>50.00
@@ -421,7 +388,7 @@
 SALIK
 32100001
 Reference ID
-2210193752232</t>
+22101962292623</t>
   </si>
   <si>
     <t>100.00
@@ -432,7 +399,7 @@
 Ajman Bank
 Description
 Reference ID
-FT230964MY46</t>
+FT23104PP57J</t>
   </si>
   <si>
     <t>100.00
@@ -442,18 +409,10 @@
 Savings Account
 011103138023
 Reference ID
-FT230967R6HX</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Transfer to
-test
-AE400211000000220294021
-Citibank NA
-Description
-Reference ID
-FT23096KN0YH</t>
+FT23104CGRVN</t>
+  </si>
+  <si>
+    <t>Transfer Failed to AE400211000000220294021</t>
   </si>
   <si>
     <t>2,200.00
@@ -467,7 +426,7 @@
 HDFC BANK LIMITED
 Description
 Reference ID
-FT23096RHR1X</t>
+FT23104YRSQ2</t>
   </si>
   <si>
     <t>30.00
@@ -481,7 +440,7 @@
 CHASE INVESTMENT COUNSEL CORPORATION
 Description
 Reference ID
-FT230960KKMR</t>
+FT23104GQ0MH</t>
   </si>
   <si>
     <t>30.00
@@ -495,19 +454,46 @@
 NATIXIS FACTOR
 Description
 Reference ID
-FT230961D78M</t>
+FT2310476L7P</t>
   </si>
   <si>
     <t>100.00
 AED
-Paid To
-NASER AL HAT011
-5309 1822 5332 1312
+Donated to
+Humaid Bin Rashid AL Nouimi
+Charity Organization
 Reference ID
-FT23096Z3B0T</t>
-  </si>
-  <si>
-    <t>0599588538</t>
+FT23104689NZ</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Zakat Fund-Zakat Al Mal
+Charity Organization
+Reference ID
+FT231049HXRH</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Zakat Fund-Al Sadaqat
+Charity Organization
+Reference ID
+FT23104KM0S4</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Zakat Fund-Zakat Al Fitr
+Charity Organization
+Reference ID
+FT23104JCPV2</t>
+  </si>
+  <si>
+    <t>4285700307275191</t>
   </si>
   <si>
     <t>50.00
@@ -517,7 +503,7 @@
 FEWA
 210000137777
 Reference ID
-22101469349854</t>
+22101479918539</t>
   </si>
   <si>
     <t>50.00
@@ -528,7 +514,28 @@
 du Postpaid
 0599588538
 Reference ID
-2210416831275</t>
+22101484596980</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+Paid To
+FEWA
+FEWA
+210000137777
+Reference ID
+2210869624279</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+(13.66 USD)
+Paid To
+DU
+du Postpaid
+0599588538
+Reference ID
+22102062697826</t>
   </si>
   <si>
     <t>200.51
@@ -538,7 +545,38 @@
 ADDC
 8235355929
 Reference ID
-22101057041035</t>
+2210570085403</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+Paid To
+FEWA
+FEWA
+210000137777
+Reference ID
+2210987422007</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+(13.66 USD)
+Paid To
+DU
+du Postpaid
+0599588538
+Reference ID
+22101634647327</t>
+  </si>
+  <si>
+    <t>200.51
+AED
+Paid To
+ADDC
+ADDC
+8235355929
+Reference ID
+2210767044988</t>
   </si>
   <si>
     <t>50.00
@@ -548,131 +586,10 @@
 SALIK
 32100001
 Reference ID
-22101978101086</t>
-  </si>
-  <si>
-    <t>Biller Du Saved Successfully with consumer number 0599588538</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Transfer to
-Short.name 1074784
-011074784027
-Ajman Bank
-Description
-Reference ID
-FT231034GDQB</t>
-  </si>
-  <si>
-    <t>100.00
-USD
-(368.60 AED)
-Transfer to
-Savings Account
-011103138023
-Reference ID
-FT23103DDP64</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Transfer to
-test
-AE400211000000220294021
-Citibank NA
-Description
-Reference ID
-FT23103Z75ZM</t>
-  </si>
-  <si>
-    <t>2,200.00
-INR
-(134.24 AED)
-Submitted
-You will be notified once your payment is successful
-Test
-India
-372073000000786
-HDFC BANK LIMITED
-Description
-Reference ID
-FT231035YWB3</t>
-  </si>
-  <si>
-    <t>30.00
-USD
-(142.08 AED)
-Submitted
-You will be notified once your payment is successful
-Terence
-United States Of America
-903013089
-CHASE INVESTMENT COUNSEL CORPORATION
-Description
-Reference ID
-FT231032LWQX</t>
-  </si>
-  <si>
-    <t>30.00
-USD
-(142.08 AED)
-Submitted
-You will be notified once your payment is successful
-AKS Natixis Bk
-France
-FR7630007999992738468400131
-NATIXIS FACTOR
-Description
-Reference ID
-FT23103YQMR0</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Donated to
-Humaid Bin Rashid AL Nouimi
-Charity Organization
-Reference ID
-FT231036FRRX</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Donated to
-Zakat Fund-Zakat Al Mal
-Charity Organization
-Reference ID
-FT231036VXWW</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Donated to
-Zakat Fund-Al Sadaqat
-Charity Organization
-Reference ID
-FT23103JLG6M</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Donated to
-Zakat Fund-Zakat Al Fitr
-Charity Organization
-Reference ID
-FT23103QKNY6</t>
-  </si>
-  <si>
-    <t>100.00
-AED
-Transfer to
-test
-AE400211000000220294021
-Citibank NA
-Description
-Reference ID
-FT23103SGYGB</t>
+2210755956638</t>
+  </si>
+  <si>
+    <t>Transfer Failed to 011074784027</t>
   </si>
 </sst>
 </file>
@@ -1099,67 +1016,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="6" width="23.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.37890625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="6" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.37890625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="17" spans="1:7">
+    <row customFormat="1" r="1" s="17" spans="1:6">
       <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>15</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>77</v>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>6263</v>
       </c>
       <c r="D2">
-        <v>6263</v>
-      </c>
-      <c r="E2">
         <v>102030</v>
       </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
       <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1183,21 +1093,21 @@
     <col min="3" max="3" customWidth="true" width="19.140625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="21.42578125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.5078125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="15.75" r="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>12</v>
@@ -1211,16 +1121,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="5">
         <v>100</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1228,16 +1138,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1245,16 +1155,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" s="5">
         <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1262,16 +1172,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="5">
         <v>100</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1292,15 +1202,15 @@
     <col min="1" max="1" customWidth="true" style="14" width="11.85546875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="14" width="18.140625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="38.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="34.62109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="34.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="17" spans="1:4">
       <c r="A1" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>12</v>
@@ -1317,10 +1227,10 @@
         <v>503644497</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1342,15 +1252,15 @@
     <col min="1" max="1" customWidth="true" width="12.5703125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="30.0" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="33.03125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="17" spans="1:4">
       <c r="A1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>12</v>
@@ -1364,13 +1274,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1385,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1401,22 +1311,22 @@
   <sheetData>
     <row ht="15.75" r="1" spans="1:8">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>12</v>
@@ -1430,20 +1340,20 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F2" s="5">
         <v>100</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1451,19 +1361,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" s="5">
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1490,10 +1400,10 @@
   <sheetData>
     <row ht="15.75" r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>12</v>
@@ -1507,13 +1417,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1543,16 +1453,16 @@
         <v>14</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>21</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>12</v>
@@ -1569,13 +1479,13 @@
         <v>102030</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1658,13 +1568,13 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I2" s="5">
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1678,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E3" s="4">
         <v>50</v>
@@ -1687,13 +1597,13 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I3" s="5">
         <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1710,10 +1620,10 @@
         <v>8235355929</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1721,22 +1631,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D5" s="3">
         <v>32100001</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>6843</v>
       </c>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1785,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>6</v>
@@ -1817,7 +1727,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I2" s="5">
         <v>50</v>
@@ -1835,7 +1745,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E3" s="4">
         <v>50</v>
@@ -1844,7 +1754,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I3" s="5">
         <v>50</v>
@@ -1865,7 +1775,7 @@
         <v>8235355929</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="7"/>
@@ -1897,25 +1807,25 @@
   <sheetData>
     <row ht="15.75" r="1" spans="1:10">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="G1" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>6</v>
@@ -1947,11 +1857,11 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1965,7 +1875,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E3" s="4">
         <v>50</v>
@@ -1974,11 +1884,11 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="7" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1995,11 +1905,11 @@
         <v>8235355929</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2022,21 +1932,21 @@
     <col min="3" max="3" customWidth="true" width="31.85546875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="29.42578125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.4921875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="15.75" r="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>29</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>12</v>
@@ -2050,16 +1960,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="5">
         <v>100</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2087,16 +1997,16 @@
   <sheetData>
     <row ht="15.75" r="1" spans="1:6">
       <c r="A1" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>31</v>
-      </c>
       <c r="D1" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>12</v>
@@ -2110,17 +2020,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="27">
         <v>100</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2143,21 +2053,21 @@
     <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="25.42578125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="15.75" r="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>12</v>
@@ -2171,16 +2081,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="5">
         <v>100</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2211,48 +2121,48 @@
     <col min="12" max="12" customWidth="true" width="21.140625" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="16.28515625" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="47.484375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="47.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="15.75" r="1" spans="1:15">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>42</v>
-      </c>
       <c r="M1" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>12</v>
@@ -2266,37 +2176,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
       </c>
       <c r="F2" s="6">
         <v>372073000000786</v>
       </c>
       <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
         <v>45</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>46</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>47</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>48</v>
-      </c>
-      <c r="L2" t="s">
-        <v>49</v>
       </c>
       <c r="M2" s="16">
         <v>2200</v>
       </c>
       <c r="O2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2304,37 +2214,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
         <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
       </c>
       <c r="F3">
         <v>903013089</v>
       </c>
       <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" t="s">
         <v>53</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3" s="5">
         <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2342,34 +2252,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>57</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>58</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>59</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>60</v>
       </c>
-      <c r="K4" t="s">
-        <v>61</v>
-      </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4" s="5">
         <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2377,34 +2287,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
         <v>62</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>64</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>65</v>
       </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M5" s="5">
         <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Ajman SuperApp - Test Data.xlsx
+++ b/Test Data/Ajman SuperApp - Test Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="148">
   <si>
     <t>biller</t>
   </si>
@@ -590,6 +590,261 @@
   </si>
   <si>
     <t>Transfer Failed to 011074784027</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Transfer to
+Short.name 1074784
+011074784027
+Ajman Bank
+UAE
+Description
+Reference ID
+FT23121HXQ5P</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Transfer to
+Short.name 1074784
+011074784027
+Ajman Bank
+UAE
+Description
+Reference ID
+FT23121BC97H</t>
+  </si>
+  <si>
+    <t>100.00
+USD
+(368.60 AED)
+Transfer to
+Savings Account
+011103138023
+Ajman Bank
+UAE
+Reference ID
+FT23121H98M1</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Transfer to
+test
+AE400211000000220294021
+Citibank NA
+UAE
+Description
+Reference ID
+FT23121DSP1H</t>
+  </si>
+  <si>
+    <t>2,200.00
+INR
+(134.24 AED)
+Submitted
+You will be notified once your payment is successful
+Test
+372073000000786
+HDFC BANK LIMITED
+India
+Description
+Reference ID
+FT23121BY2NS</t>
+  </si>
+  <si>
+    <t>30.00
+USD
+(142.08 AED)
+Submitted
+You will be notified once your payment is successful
+Terence
+903013089
+CHASE INVESTMENT COUNSEL CORPORATION
+United States Of America
+Description
+Reference ID
+FT23121JDRMX</t>
+  </si>
+  <si>
+    <t>25.00
+GBP
+(106.57 AED)
+Transfer Failed
+ICF
+GB57COUT1800020533051
+COUTTS AND COMPANY
+United Kingdom
+Description
+Reference ID</t>
+  </si>
+  <si>
+    <t>30.00
+USD
+(142.08 AED)
+Submitted
+You will be notified once your payment is successful
+AKS Natixis Bk
+FR7630007999992738468400131
+NATIXIS FACTOR
+France
+Description
+Reference ID
+FT23121P539L</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Humaid Bin Rashid AL Nouimi
+Charity Organization
+Reference ID
+FT23121NBJ3K</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Zakat Fund-Zakat Al Mal
+Charity Organization
+Reference ID
+FT23121NL10D</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Zakat Fund-Al Sadaqat
+Charity Organization
+Reference ID
+FT23121C9FF6</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Zakat Fund-Zakat Al Fitr
+Charity Organization
+Reference ID
+FT23121M635Y</t>
+  </si>
+  <si>
+    <t>User Registration Failed</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Transfer to
+Short.name 1074784
+011074784027
+Ajman Bank
+UAE
+Description
+Reference ID
+FT23121YFK9J</t>
+  </si>
+  <si>
+    <t>100.00
+USD
+(368.60 AED)
+Transfer to
+Savings Account
+011103138023
+Ajman Bank
+UAE
+Reference ID
+FT23121K52X4</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Transfer to
+test
+AE400211000000220294021
+Citibank NA
+UAE
+Description
+Reference ID
+FT23121YPLJL</t>
+  </si>
+  <si>
+    <t>2,200.00
+INR
+(134.24 AED)
+Submitted
+You will be notified once your payment is successful
+Test
+372073000000786
+HDFC BANK LIMITED
+India
+Description
+Reference ID
+FT23121XFBD9</t>
+  </si>
+  <si>
+    <t>30.00
+USD
+(142.08 AED)
+Submitted
+You will be notified once your payment is successful
+Terence
+903013089
+CHASE INVESTMENT COUNSEL CORPORATION
+United States Of America
+Description
+Reference ID
+FT23121WPP8W</t>
+  </si>
+  <si>
+    <t>30.00
+USD
+(142.08 AED)
+Submitted
+You will be notified once your payment is successful
+AKS Natixis Bk
+FR7630007999992738468400131
+NATIXIS FACTOR
+France
+Description
+Reference ID
+FT23121N95VQ</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Humaid Bin Rashid AL Nouimi
+Charity Organization
+Reference ID
+FT23121FKMS2</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Zakat Fund-Zakat Al Mal
+Charity Organization
+Reference ID
+FT231218PWBH</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Zakat Fund-Al Sadaqat
+Charity Organization
+Reference ID
+FT23121F6D8V</t>
+  </si>
+  <si>
+    <t>100.00
+AED
+Donated to
+Zakat Fund-Zakat Al Fitr
+Charity Organization
+Reference ID
+FT2312199CGK</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1284,7 @@
     <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="26.37890625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.29296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="17" spans="1:6">
@@ -1093,7 +1348,7 @@
     <col min="3" max="3" customWidth="true" width="19.140625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="21.42578125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.5078125" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="15.75" r="1" spans="1:6">
@@ -1130,7 +1385,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1147,7 +1402,7 @@
         <v>100</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1164,7 +1419,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1181,7 +1436,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1457,7 @@
     <col min="1" max="1" customWidth="true" style="14" width="11.85546875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="14" width="18.140625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="38.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="34.62109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="17" spans="1:4">
@@ -1252,7 +1507,7 @@
     <col min="1" max="1" customWidth="true" width="12.5703125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="30.0" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.03125" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="17" spans="1:4">
@@ -1932,7 +2187,7 @@
     <col min="3" max="3" customWidth="true" width="31.85546875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="29.42578125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.4921875" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="15.75" r="1" spans="1:6">
@@ -1969,7 +2224,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2030,7 +2285,7 @@
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2308,7 @@
     <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="25.42578125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="15.75" r="1" spans="1:6">
@@ -2090,7 +2345,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +2376,7 @@
     <col min="12" max="12" customWidth="true" width="21.140625" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="16.28515625" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="47.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="47.484375" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="15.75" r="1" spans="1:15">
@@ -2206,7 +2461,7 @@
         <v>2200</v>
       </c>
       <c r="O2" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2244,7 +2499,7 @@
         <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2279,7 +2534,7 @@
         <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2314,7 +2569,7 @@
         <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
